--- a/templates/narvarokort_sthlm_big.xlsx
+++ b/templates/narvarokort_sthlm_big.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobbe/proj/github/stgscout/skojjt/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4081FA-25E1-3A4F-8491-8BDB82E8AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92833F8-B2CD-FF4B-B2F1-182C2DFAE0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="1060" windowWidth="28080" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,9 +213,6 @@
     <t>10-12</t>
   </si>
   <si>
-    <t>13-15</t>
-  </si>
-  <si>
     <t>17-20</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Scoutkår X</t>
+  </si>
+  <si>
+    <t>13-16</t>
   </si>
 </sst>
 </file>
@@ -1605,45 +1605,54 @@
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1687,22 +1696,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1717,36 +1716,37 @@
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="19" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2284,8 +2284,8 @@
   </sheetPr>
   <dimension ref="A1:DF161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AW62" sqref="AW62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AV14" sqref="AV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2303,25 +2303,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="120"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="122"/>
       <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="AT1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="111">
+      <c r="AU1" s="130">
         <v>2019</v>
       </c>
-      <c r="AV1" s="112"/>
+      <c r="AV1" s="131"/>
     </row>
     <row r="2" spans="1:110" s="1" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -2334,7 +2334,7 @@
     </row>
     <row r="3" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -2452,96 +2452,96 @@
         <v>11</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="121" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="113"/>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="113"/>
-      <c r="AC4" s="137"/>
-      <c r="AD4" s="137"/>
-      <c r="AE4" s="137"/>
-      <c r="AF4" s="137"/>
-      <c r="AG4" s="137"/>
-      <c r="AH4" s="137"/>
-      <c r="AI4" s="137"/>
-      <c r="AJ4" s="137"/>
-      <c r="AK4" s="137"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="134"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="115"/>
+      <c r="X4" s="115"/>
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="115"/>
+      <c r="AA4" s="115"/>
+      <c r="AB4" s="115"/>
+      <c r="AC4" s="101"/>
+      <c r="AD4" s="101"/>
+      <c r="AE4" s="101"/>
+      <c r="AF4" s="101"/>
+      <c r="AG4" s="101"/>
+      <c r="AH4" s="101"/>
+      <c r="AI4" s="101"/>
+      <c r="AJ4" s="101"/>
+      <c r="AK4" s="101"/>
+      <c r="AL4" s="101"/>
+      <c r="AM4" s="132"/>
       <c r="AN4" s="98"/>
-      <c r="AO4" s="108"/>
+      <c r="AO4" s="142"/>
     </row>
     <row r="5" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="92"/>
-      <c r="C5" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
-      <c r="AF5" s="137"/>
-      <c r="AG5" s="137"/>
-      <c r="AH5" s="137"/>
-      <c r="AI5" s="137"/>
-      <c r="AJ5" s="137"/>
-      <c r="AK5" s="137"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="135"/>
+      <c r="C5" s="124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="115"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="101"/>
+      <c r="AE5" s="101"/>
+      <c r="AF5" s="101"/>
+      <c r="AG5" s="101"/>
+      <c r="AH5" s="101"/>
+      <c r="AI5" s="101"/>
+      <c r="AJ5" s="101"/>
+      <c r="AK5" s="101"/>
+      <c r="AL5" s="101"/>
+      <c r="AM5" s="133"/>
       <c r="AN5" s="99"/>
-      <c r="AO5" s="109"/>
+      <c r="AO5" s="143"/>
     </row>
     <row r="6" spans="1:110" s="1" customFormat="1" ht="10" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
@@ -2551,87 +2551,87 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="137"/>
-      <c r="AD6" s="137"/>
-      <c r="AE6" s="137"/>
-      <c r="AF6" s="137"/>
-      <c r="AG6" s="137"/>
-      <c r="AH6" s="137"/>
-      <c r="AI6" s="137"/>
-      <c r="AJ6" s="137"/>
-      <c r="AK6" s="137"/>
-      <c r="AL6" s="137"/>
-      <c r="AM6" s="135"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="101"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="101"/>
+      <c r="AF6" s="101"/>
+      <c r="AG6" s="101"/>
+      <c r="AH6" s="101"/>
+      <c r="AI6" s="101"/>
+      <c r="AJ6" s="101"/>
+      <c r="AK6" s="101"/>
+      <c r="AL6" s="101"/>
+      <c r="AM6" s="133"/>
       <c r="AN6" s="99"/>
-      <c r="AO6" s="109"/>
+      <c r="AO6" s="143"/>
     </row>
     <row r="7" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="137"/>
-      <c r="AD7" s="137"/>
-      <c r="AE7" s="137"/>
-      <c r="AF7" s="137"/>
-      <c r="AG7" s="137"/>
-      <c r="AH7" s="137"/>
-      <c r="AI7" s="137"/>
-      <c r="AJ7" s="137"/>
-      <c r="AK7" s="137"/>
-      <c r="AL7" s="137"/>
-      <c r="AM7" s="135"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="115"/>
+      <c r="X7" s="115"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="115"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="133"/>
       <c r="AN7" s="99"/>
-      <c r="AO7" s="109"/>
+      <c r="AO7" s="143"/>
     </row>
     <row r="8" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
@@ -2641,42 +2641,42 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="137"/>
-      <c r="AD8" s="137"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="137"/>
-      <c r="AG8" s="137"/>
-      <c r="AH8" s="137"/>
-      <c r="AI8" s="137"/>
-      <c r="AJ8" s="137"/>
-      <c r="AK8" s="137"/>
-      <c r="AL8" s="137"/>
-      <c r="AM8" s="135"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="101"/>
+      <c r="AM8" s="133"/>
       <c r="AN8" s="99"/>
-      <c r="AO8" s="109"/>
+      <c r="AO8" s="143"/>
     </row>
     <row r="9" spans="1:110" s="1" customFormat="1" ht="10" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
@@ -2686,49 +2686,49 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="113"/>
-      <c r="R9" s="113"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="137"/>
-      <c r="AD9" s="137"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="137"/>
-      <c r="AG9" s="137"/>
-      <c r="AH9" s="137"/>
-      <c r="AI9" s="137"/>
-      <c r="AJ9" s="137"/>
-      <c r="AK9" s="137"/>
-      <c r="AL9" s="137"/>
-      <c r="AM9" s="136"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="115"/>
+      <c r="X9" s="115"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
+      <c r="AA9" s="115"/>
+      <c r="AB9" s="115"/>
+      <c r="AC9" s="101"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="101"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="101"/>
+      <c r="AM9" s="134"/>
       <c r="AN9" s="100"/>
-      <c r="AO9" s="110"/>
+      <c r="AO9" s="144"/>
     </row>
     <row r="10" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="128"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="130"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="111"/>
       <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
@@ -2764,16 +2764,16 @@
       <c r="AJ10" s="47"/>
       <c r="AK10" s="47"/>
       <c r="AL10" s="47"/>
-      <c r="AM10" s="138"/>
+      <c r="AM10" s="102"/>
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
     </row>
     <row r="11" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="130"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2809,16 +2809,16 @@
       <c r="AJ11" s="47"/>
       <c r="AK11" s="47"/>
       <c r="AL11" s="47"/>
-      <c r="AM11" s="138"/>
+      <c r="AM11" s="102"/>
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
     </row>
     <row r="12" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="131"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2844,29 +2844,29 @@
       <c r="Z12" s="30"/>
       <c r="AA12" s="30"/>
       <c r="AB12" s="30"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="103"/>
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="31"/>
-      <c r="AP12" s="105" t="s">
+      <c r="AP12" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="107"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="140"/>
+      <c r="AS12" s="140"/>
+      <c r="AT12" s="140"/>
+      <c r="AU12" s="140"/>
+      <c r="AV12" s="140"/>
+      <c r="AW12" s="141"/>
       <c r="AX12" s="65"/>
     </row>
     <row r="13" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,18 +2915,18 @@
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="31"/>
-      <c r="AP13" s="101" t="s">
+      <c r="AP13" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="AQ13" s="102"/>
-      <c r="AR13" s="102"/>
-      <c r="AS13" s="102"/>
-      <c r="AT13" s="103" t="s">
+      <c r="AQ13" s="136"/>
+      <c r="AR13" s="136"/>
+      <c r="AS13" s="136"/>
+      <c r="AT13" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="AU13" s="102"/>
-      <c r="AV13" s="102"/>
-      <c r="AW13" s="104"/>
+      <c r="AU13" s="136"/>
+      <c r="AV13" s="136"/>
+      <c r="AW13" s="138"/>
       <c r="AX13" s="65"/>
     </row>
     <row r="14" spans="1:110" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2988,10 +2988,10 @@
         <v>31</v>
       </c>
       <c r="AR14" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS14" s="27" t="s">
         <v>32</v>
-      </c>
-      <c r="AS14" s="27" t="s">
-        <v>33</v>
       </c>
       <c r="AT14" s="28" t="s">
         <v>30</v>
@@ -3000,10 +3000,10 @@
         <v>31</v>
       </c>
       <c r="AV14" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW14" s="45" t="s">
         <v>32</v>
-      </c>
-      <c r="AW14" s="45" t="s">
-        <v>33</v>
       </c>
       <c r="AX14" s="65"/>
     </row>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="B60" s="80"/>
       <c r="C60" s="82"/>
-      <c r="D60" s="144"/>
+      <c r="D60" s="108"/>
       <c r="E60" s="84"/>
       <c r="F60" s="88"/>
       <c r="G60" s="49"/>
@@ -8622,10 +8622,10 @@
         <v>48</v>
       </c>
       <c r="B61" s="60"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="143"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="107"/>
       <c r="G61" s="50"/>
       <c r="H61" s="50"/>
       <c r="I61" s="49"/>
@@ -8915,35 +8915,35 @@
         <v>0</v>
       </c>
       <c r="AP62" s="72">
-        <f>SUM(AP15:AP61)</f>
+        <f t="shared" ref="AP62:AW62" si="11">SUM(AP15:AP61)</f>
         <v>0</v>
       </c>
       <c r="AQ62" s="73">
-        <f>SUM(AQ15:AQ61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR62" s="73">
-        <f>SUM(AR15:AR61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AS62" s="73">
-        <f>SUM(AS15:AS61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AT62" s="73">
-        <f>SUM(AT15:AT61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AU62" s="73">
-        <f>SUM(AU15:AU61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AV62" s="73">
-        <f>SUM(AV15:AV61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AW62" s="74">
-        <f>SUM(AW15:AW61)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AX62" s="65"/>
@@ -8967,171 +8967,171 @@
         <v/>
       </c>
       <c r="H63" s="43" t="str">
-        <f t="shared" ref="H63:AO63" si="11">IF(H62&gt;4,H62,"")</f>
+        <f t="shared" ref="H63:AO63" si="12">IF(H62&gt;4,H62,"")</f>
         <v/>
       </c>
       <c r="I63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="R63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="S63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="T63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="U63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="V63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="W63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="X63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Y63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Z63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AA63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AB63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AD63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AE63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AF63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AG63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AH63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AI63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AJ63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AK63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AL63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AM63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AN63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AO63" s="43" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AP63" s="75">
-        <f>COUNT(AP15:AP61)</f>
+        <f t="shared" ref="AP63:AW63" si="13">COUNT(AP15:AP61)</f>
         <v>0</v>
       </c>
       <c r="AQ63" s="76">
-        <f>COUNT(AQ15:AQ61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR63" s="76">
-        <f>COUNT(AR15:AR61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS63" s="76">
-        <f>COUNT(AS15:AS61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT63" s="76">
-        <f>COUNT(AT15:AT61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU63" s="76">
-        <f>COUNT(AU15:AU61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV63" s="76">
-        <f>COUNT(AV15:AV61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW63" s="77">
-        <f>COUNT(AW15:AW61)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AX63" s="65"/>
@@ -9276,39 +9276,39 @@
         <v/>
       </c>
       <c r="P133" t="str">
-        <f>IF(AND(P15="x",$AX15="s"),"x","")</f>
+        <f t="shared" ref="P133:X133" si="14">IF(AND(P15="x",$AX15="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q133" t="str">
-        <f>IF(AND(Q15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="R133" t="str">
-        <f>IF(AND(R15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S133" t="str">
-        <f>IF(AND(S15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="T133" t="str">
-        <f>IF(AND(T15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="U133" t="str">
-        <f>IF(AND(U15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="V133" t="str">
-        <f>IF(AND(V15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="W133" t="str">
-        <f>IF(AND(W15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="X133" t="str">
-        <f>IF(AND(X15="x",$AX15="s"),"x","")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Z133" t="str">
@@ -9556,39 +9556,39 @@
         <v/>
       </c>
       <c r="P137" t="str">
-        <f>IF(AND(P21="x",$AX21="s"),"x","")</f>
+        <f t="shared" ref="P137:X137" si="15">IF(AND(P21="x",$AX21="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q137" t="str">
-        <f>IF(AND(Q21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R137" t="str">
-        <f>IF(AND(R21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S137" t="str">
-        <f>IF(AND(S21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T137" t="str">
-        <f>IF(AND(T21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U137" t="str">
-        <f>IF(AND(U21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V137" t="str">
-        <f>IF(AND(V21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W137" t="str">
-        <f>IF(AND(W21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X137" t="str">
-        <f>IF(AND(X21="x",$AX21="s"),"x","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z137" t="str">
@@ -9672,23 +9672,23 @@
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.15">
       <c r="G139" t="str">
-        <f>IF(AND(G23="x",$AX23="s"),"x","")</f>
+        <f t="shared" ref="G139:I141" si="16">IF(AND(G23="x",$AX23="s"),"x","")</f>
         <v/>
       </c>
       <c r="H139" t="str">
-        <f>IF(AND(H23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I139" t="str">
-        <f>IF(AND(I23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K139" t="str">
-        <f>IF(AND(K23="x",$AX23="s"),"x","")</f>
+        <f t="shared" ref="K139:L141" si="17">IF(AND(K23="x",$AX23="s"),"x","")</f>
         <v/>
       </c>
       <c r="L139" t="str">
-        <f>IF(AND(L23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N139" t="str">
@@ -9696,69 +9696,69 @@
         <v/>
       </c>
       <c r="P139" t="str">
-        <f>IF(AND(P23="x",$AX23="s"),"x","")</f>
+        <f t="shared" ref="P139:X139" si="18">IF(AND(P23="x",$AX23="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q139" t="str">
-        <f>IF(AND(Q23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R139" t="str">
-        <f>IF(AND(R23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S139" t="str">
-        <f>IF(AND(S23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T139" t="str">
-        <f>IF(AND(T23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U139" t="str">
-        <f>IF(AND(U23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V139" t="str">
-        <f>IF(AND(V23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W139" t="str">
-        <f>IF(AND(W23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X139" t="str">
-        <f>IF(AND(X23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z139" t="str">
-        <f>IF(AND(Z23="x",$AX23="s"),"x","")</f>
+        <f t="shared" ref="Z139:AA141" si="19">IF(AND(Z23="x",$AX23="s"),"x","")</f>
         <v/>
       </c>
       <c r="AA139" t="str">
-        <f>IF(AND(AA23="x",$AX23="s"),"x","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.15">
       <c r="G140" t="str">
-        <f>IF(AND(G24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H140" t="str">
-        <f>IF(AND(H24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I140" t="str">
-        <f>IF(AND(I24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K140" t="str">
-        <f>IF(AND(K24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L140" t="str">
-        <f>IF(AND(L24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N140" t="str">
@@ -9766,69 +9766,69 @@
         <v/>
       </c>
       <c r="P140" t="str">
-        <f>IF(AND(P24="x",$AX24="s"),"x","")</f>
+        <f t="shared" ref="P140:X140" si="20">IF(AND(P24="x",$AX24="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q140" t="str">
-        <f>IF(AND(Q24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="R140" t="str">
-        <f>IF(AND(R24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S140" t="str">
-        <f>IF(AND(S24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="T140" t="str">
-        <f>IF(AND(T24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="U140" t="str">
-        <f>IF(AND(U24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="V140" t="str">
-        <f>IF(AND(V24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W140" t="str">
-        <f>IF(AND(W24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="X140" t="str">
-        <f>IF(AND(X24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Z140" t="str">
-        <f>IF(AND(Z24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AA140" t="str">
-        <f>IF(AND(AA24="x",$AX24="s"),"x","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.15">
       <c r="G141" t="str">
-        <f>IF(AND(G25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H141" t="str">
-        <f>IF(AND(H25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I141" t="str">
-        <f>IF(AND(I25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K141" t="str">
-        <f>IF(AND(K25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L141" t="str">
-        <f>IF(AND(L25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N141" t="str">
@@ -9836,47 +9836,47 @@
         <v/>
       </c>
       <c r="P141" t="str">
-        <f>IF(AND(P25="x",$AX25="s"),"x","")</f>
+        <f t="shared" ref="P141:X141" si="21">IF(AND(P25="x",$AX25="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q141" t="str">
-        <f>IF(AND(Q25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R141" t="str">
-        <f>IF(AND(R25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S141" t="str">
-        <f>IF(AND(S25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T141" t="str">
-        <f>IF(AND(T25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U141" t="str">
-        <f>IF(AND(U25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="V141" t="str">
-        <f>IF(AND(V25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W141" t="str">
-        <f>IF(AND(W25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="X141" t="str">
-        <f>IF(AND(X25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Z141" t="str">
-        <f>IF(AND(Z25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AA141" t="str">
-        <f>IF(AND(AA25="x",$AX25="s"),"x","")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -10189,39 +10189,39 @@
         <v/>
       </c>
       <c r="P146" t="str">
-        <f>IF(AND(P26="x",$AX26="s"),"x","")</f>
+        <f t="shared" ref="P146:X146" si="22">IF(AND(P26="x",$AX26="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q146" t="str">
-        <f>IF(AND(Q26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R146" t="str">
-        <f>IF(AND(R26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f>IF(AND(S26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="T146" t="str">
-        <f>IF(AND(T26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U146" t="str">
-        <f>IF(AND(U26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V146" t="str">
-        <f>IF(AND(V26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W146" t="str">
-        <f>IF(AND(W26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="X146" t="str">
-        <f>IF(AND(X26="x",$AX26="s"),"x","")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Z146" t="str">
@@ -10445,15 +10445,15 @@
     </row>
     <row r="150" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G150" t="str">
-        <f>IF(AND(G28="x",$AX28="s"),"x","")</f>
+        <f t="shared" ref="G150:I151" si="23">IF(AND(G28="x",$AX28="s"),"x","")</f>
         <v/>
       </c>
       <c r="H150" t="str">
-        <f>IF(AND(H28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I150" t="str">
-        <f>IF(AND(I28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K150" t="str">
@@ -10469,39 +10469,39 @@
         <v/>
       </c>
       <c r="P150" t="str">
-        <f>IF(AND(P28="x",$AX28="s"),"x","")</f>
+        <f t="shared" ref="P150:X150" si="24">IF(AND(P28="x",$AX28="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q150" t="str">
-        <f>IF(AND(Q28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R150" t="str">
-        <f>IF(AND(R28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="S150" t="str">
-        <f>IF(AND(S28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T150" t="str">
-        <f>IF(AND(T28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U150" t="str">
-        <f>IF(AND(U28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V150" t="str">
-        <f>IF(AND(V28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W150" t="str">
-        <f>IF(AND(W28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X150" t="str">
-        <f>IF(AND(X28="x",$AX28="s"),"x","")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Z150" t="str">
@@ -10515,15 +10515,15 @@
     </row>
     <row r="151" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G151" t="str">
-        <f>IF(AND(G29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H151" t="str">
-        <f>IF(AND(H29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I151" t="str">
-        <f>IF(AND(I29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K151" t="str">
@@ -10539,39 +10539,39 @@
         <v/>
       </c>
       <c r="P151" t="str">
-        <f>IF(AND(P29="x",$AX29="s"),"x","")</f>
+        <f t="shared" ref="P151:X151" si="25">IF(AND(P29="x",$AX29="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q151" t="str">
-        <f>IF(AND(Q29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R151" t="str">
-        <f>IF(AND(R29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="S151" t="str">
-        <f>IF(AND(S29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T151" t="str">
-        <f>IF(AND(T29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U151" t="str">
-        <f>IF(AND(U29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="V151" t="str">
-        <f>IF(AND(V29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W151" t="str">
-        <f>IF(AND(W29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="X151" t="str">
-        <f>IF(AND(X29="x",$AX29="s"),"x","")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z151" t="str">
@@ -10609,39 +10609,39 @@
         <v/>
       </c>
       <c r="P152" t="str">
-        <f>IF(AND(P32="x",$AX32="s"),"x","")</f>
+        <f t="shared" ref="P152:X152" si="26">IF(AND(P32="x",$AX32="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q152" t="str">
-        <f>IF(AND(Q32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R152" t="str">
-        <f>IF(AND(R32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S152" t="str">
-        <f>IF(AND(S32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T152" t="str">
-        <f>IF(AND(T32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U152" t="str">
-        <f>IF(AND(U32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V152" t="str">
-        <f>IF(AND(V32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W152" t="str">
-        <f>IF(AND(W32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X152" t="str">
-        <f>IF(AND(X32="x",$AX32="s"),"x","")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z152" t="str">
@@ -10679,39 +10679,39 @@
         <v/>
       </c>
       <c r="P153" t="str">
-        <f>IF(AND(P40="x",$AX40="s"),"x","")</f>
+        <f t="shared" ref="P153:X153" si="27">IF(AND(P40="x",$AX40="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q153" t="str">
-        <f>IF(AND(Q40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R153" t="str">
-        <f>IF(AND(R40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="S153" t="str">
-        <f>IF(AND(S40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T153" t="str">
-        <f>IF(AND(T40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U153" t="str">
-        <f>IF(AND(U40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V153" t="str">
-        <f>IF(AND(V40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W153" t="str">
-        <f>IF(AND(W40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="X153" t="str">
-        <f>IF(AND(X40="x",$AX40="s"),"x","")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Z153" t="str">
@@ -10725,23 +10725,23 @@
     </row>
     <row r="154" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G154" t="str">
-        <f>IF(AND(G43="x",$AX43="s"),"x","")</f>
+        <f t="shared" ref="G154:I157" si="28">IF(AND(G43="x",$AX43="s"),"x","")</f>
         <v/>
       </c>
       <c r="H154" t="str">
-        <f>IF(AND(H43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I154" t="str">
-        <f>IF(AND(I43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K154" t="str">
-        <f>IF(AND(K43="x",$AX43="s"),"x","")</f>
+        <f t="shared" ref="K154:L157" si="29">IF(AND(K43="x",$AX43="s"),"x","")</f>
         <v/>
       </c>
       <c r="L154" t="str">
-        <f>IF(AND(L43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N154" t="str">
@@ -10749,69 +10749,69 @@
         <v/>
       </c>
       <c r="P154" t="str">
-        <f>IF(AND(P43="x",$AX43="s"),"x","")</f>
+        <f t="shared" ref="P154:X154" si="30">IF(AND(P43="x",$AX43="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q154" t="str">
-        <f>IF(AND(Q43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="R154" t="str">
-        <f>IF(AND(R43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="S154" t="str">
-        <f>IF(AND(S43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="T154" t="str">
-        <f>IF(AND(T43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="U154" t="str">
-        <f>IF(AND(U43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="V154" t="str">
-        <f>IF(AND(V43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="W154" t="str">
-        <f>IF(AND(W43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="X154" t="str">
-        <f>IF(AND(X43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Z154" t="str">
-        <f>IF(AND(Z43="x",$AX43="s"),"x","")</f>
+        <f t="shared" ref="Z154:AA157" si="31">IF(AND(Z43="x",$AX43="s"),"x","")</f>
         <v/>
       </c>
       <c r="AA154" t="str">
-        <f>IF(AND(AA43="x",$AX43="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="155" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G155" t="str">
-        <f>IF(AND(G44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H155" t="str">
-        <f>IF(AND(H44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I155" t="str">
-        <f>IF(AND(I44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K155" t="str">
-        <f>IF(AND(K44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L155" t="str">
-        <f>IF(AND(L44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N155" t="str">
@@ -10819,69 +10819,69 @@
         <v/>
       </c>
       <c r="P155" t="str">
-        <f>IF(AND(P44="x",$AX44="s"),"x","")</f>
+        <f t="shared" ref="P155:X155" si="32">IF(AND(P44="x",$AX44="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q155" t="str">
-        <f>IF(AND(Q44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="R155" t="str">
-        <f>IF(AND(R44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="S155" t="str">
-        <f>IF(AND(S44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="T155" t="str">
-        <f>IF(AND(T44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="U155" t="str">
-        <f>IF(AND(U44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="V155" t="str">
-        <f>IF(AND(V44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="W155" t="str">
-        <f>IF(AND(W44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="X155" t="str">
-        <f>IF(AND(X44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Z155" t="str">
-        <f>IF(AND(Z44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AA155" t="str">
-        <f>IF(AND(AA44="x",$AX44="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="156" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G156" t="str">
-        <f>IF(AND(G45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H156" t="str">
-        <f>IF(AND(H45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I156" t="str">
-        <f>IF(AND(I45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K156" t="str">
-        <f>IF(AND(K45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L156" t="str">
-        <f>IF(AND(L45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N156" t="str">
@@ -10889,69 +10889,69 @@
         <v/>
       </c>
       <c r="P156" t="str">
-        <f>IF(AND(P45="x",$AX45="s"),"x","")</f>
+        <f t="shared" ref="P156:X156" si="33">IF(AND(P45="x",$AX45="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q156" t="str">
-        <f>IF(AND(Q45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="R156" t="str">
-        <f>IF(AND(R45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="S156" t="str">
-        <f>IF(AND(S45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T156" t="str">
-        <f>IF(AND(T45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U156" t="str">
-        <f>IF(AND(U45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V156" t="str">
-        <f>IF(AND(V45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="W156" t="str">
-        <f>IF(AND(W45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="X156" t="str">
-        <f>IF(AND(X45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Z156" t="str">
-        <f>IF(AND(Z45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AA156" t="str">
-        <f>IF(AND(AA45="x",$AX45="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="157" spans="7:27" x14ac:dyDescent="0.15">
       <c r="G157" t="str">
-        <f>IF(AND(G46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="H157" t="str">
-        <f>IF(AND(H46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="I157" t="str">
-        <f>IF(AND(I46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K157" t="str">
-        <f>IF(AND(K46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L157" t="str">
-        <f>IF(AND(L46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N157" t="str">
@@ -10959,47 +10959,47 @@
         <v/>
       </c>
       <c r="P157" t="str">
-        <f>IF(AND(P46="x",$AX46="s"),"x","")</f>
+        <f t="shared" ref="P157:X157" si="34">IF(AND(P46="x",$AX46="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q157" t="str">
-        <f>IF(AND(Q46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="R157" t="str">
-        <f>IF(AND(R46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="S157" t="str">
-        <f>IF(AND(S46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="T157" t="str">
-        <f>IF(AND(T46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="U157" t="str">
-        <f>IF(AND(U46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="V157" t="str">
-        <f>IF(AND(V46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="W157" t="str">
-        <f>IF(AND(W46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="X157" t="str">
-        <f>IF(AND(X46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z157" t="str">
-        <f>IF(AND(Z46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="AA157" t="str">
-        <f>IF(AND(AA46="x",$AX46="s"),"x","")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -11029,39 +11029,39 @@
         <v/>
       </c>
       <c r="P158" t="str">
-        <f t="shared" ref="P158:X158" si="12">IF(AND(P61="x",$AX61="s"),"x","")</f>
+        <f t="shared" ref="P158:X158" si="35">IF(AND(P61="x",$AX61="s"),"x","")</f>
         <v/>
       </c>
       <c r="Q158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="R158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="S158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="T158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="U158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="V158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="W158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="X158" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Z158" t="str">
@@ -11285,6 +11285,26 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AP12:AW12"/>
+    <mergeCell ref="AO4:AO9"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="AM4:AM9"/>
+    <mergeCell ref="AB4:AB9"/>
+    <mergeCell ref="Z4:Z9"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="W4:W9"/>
+    <mergeCell ref="X4:X9"/>
+    <mergeCell ref="AA4:AA9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="A10:E12"/>
     <mergeCell ref="Y4:Y9"/>
     <mergeCell ref="V4:V9"/>
@@ -11299,26 +11319,6 @@
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="K4:K9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="Q4:Q9"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="AM4:AM9"/>
-    <mergeCell ref="AB4:AB9"/>
-    <mergeCell ref="Z4:Z9"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="X4:X9"/>
-    <mergeCell ref="AA4:AA9"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AT13:AW13"/>
-    <mergeCell ref="AP12:AW12"/>
-    <mergeCell ref="AO4:AO9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/templates/narvarokort_sthlm_big.xlsx
+++ b/templates/narvarokort_sthlm_big.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobbe/proj/github/stgscout/skojjt/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\skojjt\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92833F8-B2CD-FF4B-B2F1-182C2DFAE0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521EAB00-C5AC-4748-BE74-25279A73C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="1060" windowWidth="28080" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Närvarokort" sheetId="1" r:id="rId1"/>
@@ -1637,25 +1637,60 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment textRotation="90"/>
       <protection locked="0"/>
     </xf>
@@ -1696,57 +1731,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1878,85 +1878,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1034" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E393D93F-BEB8-E54F-89F2-1DE3F52DB5FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12941300" y="457200"/>
-          <a:ext cx="1295400" cy="1384300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2285,45 +2206,45 @@
   <dimension ref="A1:DF161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AV14" sqref="AV14"/>
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" customWidth="1"/>
-    <col min="7" max="41" width="3.33203125" customWidth="1"/>
-    <col min="42" max="48" width="4.33203125" customWidth="1"/>
-    <col min="49" max="49" width="4.6640625" customWidth="1"/>
-    <col min="50" max="50" width="1.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.6328125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="41" width="3.36328125" customWidth="1"/>
+    <col min="42" max="48" width="4.36328125" customWidth="1"/>
+    <col min="49" max="49" width="4.6328125" customWidth="1"/>
+    <col min="50" max="50" width="1.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:110" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="122"/>
+      <c r="E1" s="131"/>
       <c r="G1" s="24" t="s">
         <v>8</v>
       </c>
       <c r="AT1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="130">
+      <c r="AU1" s="119">
         <v>2019</v>
       </c>
-      <c r="AV1" s="131"/>
+      <c r="AV1" s="120"/>
     </row>
-    <row r="2" spans="1:110" s="1" customFormat="1" ht="11" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:110" s="1" customFormat="1" ht="8.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +2253,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:110" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="32" t="s">
         <v>36</v>
       </c>
@@ -2447,41 +2368,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:110" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:110" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="123" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
       <c r="AC4" s="101"/>
       <c r="AD4" s="101"/>
       <c r="AE4" s="101"/>
@@ -2492,43 +2413,43 @@
       <c r="AJ4" s="101"/>
       <c r="AK4" s="101"/>
       <c r="AL4" s="101"/>
-      <c r="AM4" s="132"/>
+      <c r="AM4" s="122"/>
       <c r="AN4" s="98"/>
-      <c r="AO4" s="142"/>
+      <c r="AO4" s="116"/>
     </row>
-    <row r="5" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:110" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="92"/>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
-      <c r="V5" s="117"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="121"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
       <c r="AC5" s="101"/>
       <c r="AD5" s="101"/>
       <c r="AE5" s="101"/>
@@ -2539,11 +2460,11 @@
       <c r="AJ5" s="101"/>
       <c r="AK5" s="101"/>
       <c r="AL5" s="101"/>
-      <c r="AM5" s="133"/>
+      <c r="AM5" s="123"/>
       <c r="AN5" s="99"/>
-      <c r="AO5" s="143"/>
+      <c r="AO5" s="117"/>
     </row>
-    <row r="6" spans="1:110" s="1" customFormat="1" ht="10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:110" s="1" customFormat="1" ht="8" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
@@ -2551,29 +2472,29 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="117"/>
-      <c r="T6" s="117"/>
-      <c r="U6" s="117"/>
-      <c r="V6" s="117"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="121"/>
+      <c r="R6" s="121"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="121"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="121"/>
+      <c r="AA6" s="121"/>
+      <c r="AB6" s="121"/>
       <c r="AC6" s="101"/>
       <c r="AD6" s="101"/>
       <c r="AE6" s="101"/>
@@ -2584,11 +2505,11 @@
       <c r="AJ6" s="101"/>
       <c r="AK6" s="101"/>
       <c r="AL6" s="101"/>
-      <c r="AM6" s="133"/>
+      <c r="AM6" s="123"/>
       <c r="AN6" s="99"/>
-      <c r="AO6" s="143"/>
+      <c r="AO6" s="117"/>
     </row>
-    <row r="7" spans="1:110" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:110" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>35</v>
       </c>
@@ -2596,29 +2517,29 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="117"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="115"/>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="115"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="121"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="121"/>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="121"/>
       <c r="AC7" s="101"/>
       <c r="AD7" s="101"/>
       <c r="AE7" s="101"/>
@@ -2629,11 +2550,11 @@
       <c r="AJ7" s="101"/>
       <c r="AK7" s="101"/>
       <c r="AL7" s="101"/>
-      <c r="AM7" s="133"/>
+      <c r="AM7" s="123"/>
       <c r="AN7" s="99"/>
-      <c r="AO7" s="143"/>
+      <c r="AO7" s="117"/>
     </row>
-    <row r="8" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
@@ -2641,29 +2562,29 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="121"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="121"/>
+      <c r="AA8" s="121"/>
+      <c r="AB8" s="121"/>
       <c r="AC8" s="101"/>
       <c r="AD8" s="101"/>
       <c r="AE8" s="101"/>
@@ -2674,11 +2595,11 @@
       <c r="AJ8" s="101"/>
       <c r="AK8" s="101"/>
       <c r="AL8" s="101"/>
-      <c r="AM8" s="133"/>
+      <c r="AM8" s="123"/>
       <c r="AN8" s="99"/>
-      <c r="AO8" s="143"/>
+      <c r="AO8" s="117"/>
     </row>
-    <row r="9" spans="1:110" s="1" customFormat="1" ht="10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:110" s="1" customFormat="1" ht="8" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2686,29 +2607,29 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="118"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="115"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="115"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="121"/>
+      <c r="X9" s="121"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="121"/>
+      <c r="AA9" s="121"/>
+      <c r="AB9" s="121"/>
       <c r="AC9" s="101"/>
       <c r="AD9" s="101"/>
       <c r="AE9" s="101"/>
@@ -2719,16 +2640,16 @@
       <c r="AJ9" s="101"/>
       <c r="AK9" s="101"/>
       <c r="AL9" s="101"/>
-      <c r="AM9" s="134"/>
+      <c r="AM9" s="124"/>
       <c r="AN9" s="100"/>
-      <c r="AO9" s="144"/>
+      <c r="AO9" s="118"/>
     </row>
-    <row r="10" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="111"/>
+    <row r="10" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="139"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
       <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
@@ -2768,12 +2689,12 @@
       <c r="AN10" s="64"/>
       <c r="AO10" s="64"/>
     </row>
-    <row r="11" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="111"/>
+    <row r="11" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="139"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
       <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
@@ -2813,12 +2734,12 @@
       <c r="AN11" s="64"/>
       <c r="AO11" s="64"/>
     </row>
-    <row r="12" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="112"/>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="114"/>
+    <row r="12" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="142"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2857,19 +2778,19 @@
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
       <c r="AO12" s="31"/>
-      <c r="AP12" s="139" t="s">
+      <c r="AP12" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AQ12" s="140"/>
-      <c r="AR12" s="140"/>
-      <c r="AS12" s="140"/>
-      <c r="AT12" s="140"/>
-      <c r="AU12" s="140"/>
-      <c r="AV12" s="140"/>
-      <c r="AW12" s="141"/>
+      <c r="AQ12" s="114"/>
+      <c r="AR12" s="114"/>
+      <c r="AS12" s="114"/>
+      <c r="AT12" s="114"/>
+      <c r="AU12" s="114"/>
+      <c r="AV12" s="114"/>
+      <c r="AW12" s="115"/>
       <c r="AX12" s="65"/>
     </row>
-    <row r="13" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="16" t="s">
         <v>22</v>
@@ -2915,21 +2836,21 @@
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
       <c r="AO13" s="31"/>
-      <c r="AP13" s="135" t="s">
+      <c r="AP13" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="AQ13" s="136"/>
-      <c r="AR13" s="136"/>
-      <c r="AS13" s="136"/>
-      <c r="AT13" s="137" t="s">
+      <c r="AQ13" s="110"/>
+      <c r="AR13" s="110"/>
+      <c r="AS13" s="110"/>
+      <c r="AT13" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AU13" s="136"/>
-      <c r="AV13" s="136"/>
-      <c r="AW13" s="138"/>
+      <c r="AU13" s="110"/>
+      <c r="AV13" s="110"/>
+      <c r="AW13" s="112"/>
       <c r="AX13" s="65"/>
     </row>
-    <row r="14" spans="1:110" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:110" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="17" t="s">
         <v>26</v>
@@ -3007,7 +2928,7 @@
       </c>
       <c r="AX14" s="65"/>
     </row>
-    <row r="15" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>1</v>
       </c>
@@ -3088,7 +3009,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>2</v>
       </c>
@@ -3229,7 +3150,7 @@
       <c r="DE16" s="6"/>
       <c r="DF16" s="6"/>
     </row>
-    <row r="17" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>3</v>
       </c>
@@ -3370,7 +3291,7 @@
       <c r="DE17" s="6"/>
       <c r="DF17" s="6"/>
     </row>
-    <row r="18" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>4</v>
       </c>
@@ -3451,7 +3372,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>5</v>
       </c>
@@ -3532,7 +3453,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>6</v>
       </c>
@@ -3673,7 +3594,7 @@
       <c r="DE20" s="6"/>
       <c r="DF20" s="6"/>
     </row>
-    <row r="21" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>7</v>
       </c>
@@ -3814,7 +3735,7 @@
       <c r="DE21" s="6"/>
       <c r="DF21" s="6"/>
     </row>
-    <row r="22" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>8</v>
       </c>
@@ -3895,7 +3816,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>9</v>
       </c>
@@ -3976,7 +3897,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>10</v>
       </c>
@@ -4117,7 +4038,7 @@
       <c r="DE24" s="6"/>
       <c r="DF24" s="6"/>
     </row>
-    <row r="25" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>11</v>
       </c>
@@ -4258,7 +4179,7 @@
       <c r="DE25" s="6"/>
       <c r="DF25" s="6"/>
     </row>
-    <row r="26" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>12</v>
       </c>
@@ -4399,7 +4320,7 @@
       <c r="DE26" s="6"/>
       <c r="DF26" s="6"/>
     </row>
-    <row r="27" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>13</v>
       </c>
@@ -4540,7 +4461,7 @@
       <c r="DE27" s="6"/>
       <c r="DF27" s="6"/>
     </row>
-    <row r="28" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>15</v>
       </c>
@@ -4681,7 +4602,7 @@
       <c r="DE28" s="6"/>
       <c r="DF28" s="6"/>
     </row>
-    <row r="29" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>16</v>
       </c>
@@ -4822,7 +4743,7 @@
       <c r="DE29" s="6"/>
       <c r="DF29" s="6"/>
     </row>
-    <row r="30" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>17</v>
       </c>
@@ -4903,7 +4824,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>18</v>
       </c>
@@ -4984,7 +4905,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>19</v>
       </c>
@@ -5065,7 +4986,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>20</v>
       </c>
@@ -5146,7 +5067,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:110" s="6" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>21</v>
       </c>
@@ -5227,7 +5148,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>22</v>
       </c>
@@ -5368,7 +5289,7 @@
       <c r="DE35" s="6"/>
       <c r="DF35" s="6"/>
     </row>
-    <row r="36" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>23</v>
       </c>
@@ -5449,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>24</v>
       </c>
@@ -5590,7 +5511,7 @@
       <c r="DE37" s="6"/>
       <c r="DF37" s="6"/>
     </row>
-    <row r="38" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>25</v>
       </c>
@@ -5731,7 +5652,7 @@
       <c r="DE38" s="6"/>
       <c r="DF38" s="6"/>
     </row>
-    <row r="39" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>26</v>
       </c>
@@ -5872,7 +5793,7 @@
       <c r="DE39" s="6"/>
       <c r="DF39" s="6"/>
     </row>
-    <row r="40" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>27</v>
       </c>
@@ -5953,7 +5874,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>28</v>
       </c>
@@ -6034,7 +5955,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>29</v>
       </c>
@@ -6115,7 +6036,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>30</v>
       </c>
@@ -6256,7 +6177,7 @@
       <c r="DE43" s="6"/>
       <c r="DF43" s="6"/>
     </row>
-    <row r="44" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
         <v>31</v>
       </c>
@@ -6397,7 +6318,7 @@
       <c r="DE44" s="6"/>
       <c r="DF44" s="6"/>
     </row>
-    <row r="45" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19">
         <v>32</v>
       </c>
@@ -6538,7 +6459,7 @@
       <c r="DE45" s="6"/>
       <c r="DF45" s="6"/>
     </row>
-    <row r="46" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
         <v>33</v>
       </c>
@@ -6679,7 +6600,7 @@
       <c r="DE46" s="6"/>
       <c r="DF46" s="6"/>
     </row>
-    <row r="47" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
         <v>34</v>
       </c>
@@ -6820,7 +6741,7 @@
       <c r="DE47" s="6"/>
       <c r="DF47" s="6"/>
     </row>
-    <row r="48" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
         <v>35</v>
       </c>
@@ -6958,7 +6879,7 @@
       <c r="DE48" s="6"/>
       <c r="DF48" s="6"/>
     </row>
-    <row r="49" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>36</v>
       </c>
@@ -7096,7 +7017,7 @@
       <c r="DE49" s="6"/>
       <c r="DF49" s="6"/>
     </row>
-    <row r="50" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>37</v>
       </c>
@@ -7234,7 +7155,7 @@
       <c r="DE50" s="6"/>
       <c r="DF50" s="6"/>
     </row>
-    <row r="51" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>38</v>
       </c>
@@ -7372,7 +7293,7 @@
       <c r="DE51" s="6"/>
       <c r="DF51" s="6"/>
     </row>
-    <row r="52" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>39</v>
       </c>
@@ -7510,7 +7431,7 @@
       <c r="DE52" s="6"/>
       <c r="DF52" s="6"/>
     </row>
-    <row r="53" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
         <v>40</v>
       </c>
@@ -7648,7 +7569,7 @@
       <c r="DE53" s="6"/>
       <c r="DF53" s="6"/>
     </row>
-    <row r="54" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
         <v>41</v>
       </c>
@@ -7786,7 +7707,7 @@
       <c r="DE54" s="6"/>
       <c r="DF54" s="6"/>
     </row>
-    <row r="55" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
         <v>42</v>
       </c>
@@ -7924,7 +7845,7 @@
       <c r="DE55" s="6"/>
       <c r="DF55" s="6"/>
     </row>
-    <row r="56" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
         <v>43</v>
       </c>
@@ -8062,7 +7983,7 @@
       <c r="DE56" s="6"/>
       <c r="DF56" s="6"/>
     </row>
-    <row r="57" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>44</v>
       </c>
@@ -8200,7 +8121,7 @@
       <c r="DE57" s="6"/>
       <c r="DF57" s="6"/>
     </row>
-    <row r="58" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>45</v>
       </c>
@@ -8338,7 +8259,7 @@
       <c r="DE58" s="6"/>
       <c r="DF58" s="6"/>
     </row>
-    <row r="59" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>46</v>
       </c>
@@ -8476,7 +8397,7 @@
       <c r="DE59" s="6"/>
       <c r="DF59" s="6"/>
     </row>
-    <row r="60" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>47</v>
       </c>
@@ -8617,7 +8538,7 @@
       <c r="DE60" s="6"/>
       <c r="DF60" s="6"/>
     </row>
-    <row r="61" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:110" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>48</v>
       </c>
@@ -8758,7 +8679,7 @@
       <c r="DE61" s="6"/>
       <c r="DF61" s="6"/>
     </row>
-    <row r="62" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:110" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>0</v>
       </c>
@@ -8948,7 +8869,7 @@
       </c>
       <c r="AX62" s="65"/>
     </row>
-    <row r="63" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:110" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="21" t="s">
         <v>3</v>
@@ -9136,7 +9057,7 @@
       </c>
       <c r="AX63" s="65"/>
     </row>
-    <row r="64" spans="1:110" ht="14" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:110" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -9180,7 +9101,7 @@
       <c r="AU64" s="2"/>
       <c r="AV64" s="2"/>
     </row>
-    <row r="132" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G132" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9250,7 +9171,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="133" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G133" t="str">
         <f>IF(AND(G15="x",$AX15="s"),"x","")</f>
         <v/>
@@ -9320,7 +9241,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G134" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9390,7 +9311,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="135" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G135" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9460,7 +9381,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="136" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G136" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9530,7 +9451,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="137" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G137" t="str">
         <f>IF(AND(G21="x",$AX21="s"),"x","")</f>
         <v/>
@@ -9600,7 +9521,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G138" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9670,7 +9591,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G139" t="str">
         <f t="shared" ref="G139:I141" si="16">IF(AND(G23="x",$AX23="s"),"x","")</f>
         <v/>
@@ -9740,7 +9661,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G140" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -9810,7 +9731,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G141" t="str">
         <f t="shared" si="16"/>
         <v/>
@@ -9880,7 +9801,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G142" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -9950,7 +9871,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="143" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:27" x14ac:dyDescent="0.25">
       <c r="G143" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -10020,7 +9941,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="144" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -10093,7 +10014,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="145" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="145" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G145" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -10163,7 +10084,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="146" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="146" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G146" t="str">
         <f>IF(AND(G26="x",$AX26="s"),"x","")</f>
         <v/>
@@ -10233,7 +10154,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="147" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G147" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -10303,7 +10224,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="148" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G148" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -10373,7 +10294,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="149" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="149" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G149" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -10443,7 +10364,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="150" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="150" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G150" t="str">
         <f t="shared" ref="G150:I151" si="23">IF(AND(G28="x",$AX28="s"),"x","")</f>
         <v/>
@@ -10513,7 +10434,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="151" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G151" t="str">
         <f t="shared" si="23"/>
         <v/>
@@ -10583,7 +10504,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="152" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G152" t="str">
         <f>IF(AND(G32="x",$AX32="s"),"x","")</f>
         <v/>
@@ -10653,7 +10574,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="153" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G153" t="str">
         <f>IF(AND(G40="x",$AX40="s"),"x","")</f>
         <v/>
@@ -10723,7 +10644,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="154" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G154" t="str">
         <f t="shared" ref="G154:I157" si="28">IF(AND(G43="x",$AX43="s"),"x","")</f>
         <v/>
@@ -10793,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="155" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G155" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -10863,7 +10784,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="156" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G156" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -10933,7 +10854,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="157" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G157" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -11003,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="158" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G158" t="str">
         <f>IF(AND(G61="x",$AX61="s"),"x","")</f>
         <v/>
@@ -11073,7 +10994,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="159" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G159" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -11143,7 +11064,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="160" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="160" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G160" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -11213,7 +11134,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="161" spans="7:27" x14ac:dyDescent="0.15">
+    <row r="161" spans="7:27" x14ac:dyDescent="0.25">
       <c r="G161" t="e">
         <f>IF(AND(#REF!="x",#REF!="s"),"x","")</f>
         <v>#REF!</v>
@@ -11285,26 +11206,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AT13:AW13"/>
-    <mergeCell ref="AP12:AW12"/>
-    <mergeCell ref="AO4:AO9"/>
-    <mergeCell ref="AU1:AV1"/>
-    <mergeCell ref="Q4:Q9"/>
-    <mergeCell ref="R4:R9"/>
-    <mergeCell ref="AM4:AM9"/>
-    <mergeCell ref="AB4:AB9"/>
-    <mergeCell ref="Z4:Z9"/>
-    <mergeCell ref="T4:T9"/>
-    <mergeCell ref="W4:W9"/>
-    <mergeCell ref="X4:X9"/>
-    <mergeCell ref="AA4:AA9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
     <mergeCell ref="A10:E12"/>
     <mergeCell ref="Y4:Y9"/>
     <mergeCell ref="V4:V9"/>
@@ -11319,13 +11220,32 @@
     <mergeCell ref="H4:H9"/>
     <mergeCell ref="L4:L9"/>
     <mergeCell ref="K4:K9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="Q4:Q9"/>
+    <mergeCell ref="R4:R9"/>
+    <mergeCell ref="AM4:AM9"/>
+    <mergeCell ref="AB4:AB9"/>
+    <mergeCell ref="Z4:Z9"/>
+    <mergeCell ref="T4:T9"/>
+    <mergeCell ref="W4:W9"/>
+    <mergeCell ref="X4:X9"/>
+    <mergeCell ref="AA4:AA9"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AP12:AW12"/>
+    <mergeCell ref="AO4:AO9"/>
+    <mergeCell ref="AU1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="360" verticalDpi="360"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>